--- a/medicine/Sexualité et sexologie/Contraception_masculine/Contraception_masculine.xlsx
+++ b/medicine/Sexualité et sexologie/Contraception_masculine/Contraception_masculine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> La contraception masculine vise les spermatozoïdes, leur production (par une atteinte à la spermatogenèse (par voie hormonale, chimique ou thermique[2]) ou leur acheminement (par voie chirurgicale : la vasectomie, obstruction mécanique : le préservatif, ou encore comportemental : la méthode du retrait).
-Il reste que la diversité des contraceptions masculines est mal connue, même des praticiens prescripteurs[1].
-L'usage de la contraception dans les pays en développement a, selon les estimations, réduit les « morts maternelles » de 40 % (près de 270 000 morts évitées en 2008) et pourrait prévenir 70 % des morts si la demande pour le contrôle des naissances était totalement pourvue[3],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> La contraception masculine vise les spermatozoïdes, leur production (par une atteinte à la spermatogenèse (par voie hormonale, chimique ou thermique) ou leur acheminement (par voie chirurgicale : la vasectomie, obstruction mécanique : le préservatif, ou encore comportemental : la méthode du retrait).
+Il reste que la diversité des contraceptions masculines est mal connue, même des praticiens prescripteurs.
+L'usage de la contraception dans les pays en développement a, selon les estimations, réduit les « morts maternelles » de 40 % (près de 270 000 morts évitées en 2008) et pourrait prévenir 70 % des morts si la demande pour le contrôle des naissances était totalement pourvue,.
 Ceci souligne l'importance d'une contraception accessible pour les deux sexes.
 </t>
         </is>
@@ -516,14 +528,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Préservatif
-Indice de Pearl en utilisation optimale : 3
-Indice de Pearl en pratique courante : 14[5]
+          <t>Préservatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indice de Pearl en utilisation optimale : 3
+Indice de Pearl en pratique courante : 14
 Dans le cadre de la prévention des infections sexuellement transmissibles, le préservatif masculin est le seul moyen contraceptif également efficace pour lutter contre la transmission des infections sexuellement transmissibles.
-Gel contraceptif (RISUG : Reversible Inhibition of Sperm Under Guidance)
-Le RISUG est un polymère d'anhydride maléique de styrène dissous dans du diméthylsulfoxyde qu'on injecte dans les canaux déférents. Le gel tapisse la paroi interne et se solidifie en quelques minutes. Ainsi, lorsque les spermatozoides passent dans le canal au moment de l'éjaculation, ils entrent en contact avec le gel qui leur fait perdre leur capacité à être mobile et donc de féconder l'ovocyte[6]. Pour réverser cette méthode, on injecte du bicarbonate de soude qui va venir dissoudre le gel[7]. On retrouve cette contraception aux Etats-Unis sous le nom de Vasalgel, qui utilise un autre composant : de l'acide styrène-alt-maléique (essais sur des animaux pour l'instant)[8]. 
-L’interrupteur à sperme
-Un moyen de contraception en cours de développement, couramment dénommé « interrupteur à sperme », consiste en un dispositif implanté sur les canaux déférents permettant au porteur d'en obstruer ou d'en libérer la circulation. Comme pour une vasectomie, l'efficacité après chaque activation de la position d'obstruction devrait être contrôlée par spermogrammes trois à six mois après la modification. Cet outil serait en cours de test auprès d'une première cohorte de 25 utilisateurs[9], après avoir été conçu et produit par la société suisse PES Innovation AG, sous la marque Bimek SLV, du nom du concepteur de l'objet Clemens Bimek[10]. La société semble donc être en cours d'essai clinique, leur validation permettant de la certification européenne et de l'enregistrement du brevet, elle serait en 2021 encore prête à recevoir de nouveaux candidats au test clinique[11].</t>
+</t>
         </is>
       </c>
     </row>
@@ -548,10 +562,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Méthode hormonale</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>Méthodes barrières</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Gel contraceptif (RISUG : Reversible Inhibition of Sperm Under Guidance)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Le RISUG est un polymère d'anhydride maléique de styrène dissous dans du diméthylsulfoxyde qu'on injecte dans les canaux déférents. Le gel tapisse la paroi interne et se solidifie en quelques minutes. Ainsi, lorsque les spermatozoides passent dans le canal au moment de l'éjaculation, ils entrent en contact avec le gel qui leur fait perdre leur capacité à être mobile et donc de féconder l'ovocyte. Pour réverser cette méthode, on injecte du bicarbonate de soude qui va venir dissoudre le gel. On retrouve cette contraception aux Etats-Unis sous le nom de Vasalgel, qui utilise un autre composant : de l'acide styrène-alt-maléique (essais sur des animaux pour l'instant). </t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -574,16 +599,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Méthode de stérilisation</t>
+          <t>Méthodes barrières</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vasectomie
-Indice de Pearl en utilisation optimale : 0,1
-Indice de Pearl en pratique courante : 0,15[5]
-La vasectomie[12] ou ligature des canaux déférents[13] est une opération chirurgicale utilisée comme méthode de stérilisation ou de contraception (réversibilité). Elle consiste à sectionner ou bloquer les canaux déférents qui transportent les spermatozoïdes chez des individus mâles.
-</t>
+          <t>L’interrupteur à sperme</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Un moyen de contraception en cours de développement, couramment dénommé « interrupteur à sperme », consiste en un dispositif implanté sur les canaux déférents permettant au porteur d'en obstruer ou d'en libérer la circulation. Comme pour une vasectomie, l'efficacité après chaque activation de la position d'obstruction devrait être contrôlée par spermogrammes trois à six mois après la modification. Cet outil serait en cours de test auprès d'une première cohorte de 25 utilisateurs, après avoir été conçu et produit par la société suisse PES Innovation AG, sous la marque Bimek SLV, du nom du concepteur de l'objet Clemens Bimek. La société semble donc être en cours d'essai clinique, leur validation permettant de la certification européenne et de l'enregistrement du brevet, elle serait en 2021 encore prête à recevoir de nouveaux candidats au test clinique.</t>
         </is>
       </c>
     </row>
@@ -608,20 +636,127 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Méthode hormonale</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Contraception_masculine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Contraception_masculine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Méthode de stérilisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Vasectomie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indice de Pearl en utilisation optimale : 0,1
+Indice de Pearl en pratique courante : 0,15
+La vasectomie ou ligature des canaux déférents est une opération chirurgicale utilisée comme méthode de stérilisation ou de contraception (réversibilité). Elle consiste à sectionner ou bloquer les canaux déférents qui transportent les spermatozoïdes chez des individus mâles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Contraception_masculine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Contraception_masculine</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Méthodes dites « naturelles »</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Contraception testiculaire thermique
-Indice de Pearl en utilisation optimale : 0,6
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Contraception testiculaire thermique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indice de Pearl en utilisation optimale : 0,6
 Indice de Pearl en pratique courante : 0,8[réf. nécessaire]
 Elle est actuellement utilisée par plus d'un millier d'hommes en France.
-La méthode thermique consiste à augmenter légèrement la température des testicules grâce à la chaleur corporelle à l’aide d’un sous-vêtement adapté[14],[15].
-Depuis 2007, il a été défini le seuil contraceptif masculin. Que ce soit pour une méthode thermique ou hormonale, il est de 1 million de spermatozoïdes/millilitre par éjaculat[16],[17],[18]. En effet, sur les 50 couples suivis durant 537 cycles de grossesse, une seule a été constatée à la suite d'une mauvaise utilisation de la technique[18]. L'indice de Pearl serait donc inférieur à 0,5 et cette contraception peut être considérée comme efficace selon les normes de l'OMS.
-Le retrait
-Indice de Pearl en utilisation optimale : 1 à 9
-Indice de Pearl en pratique courante : 20[5]</t>
+La méthode thermique consiste à augmenter légèrement la température des testicules grâce à la chaleur corporelle à l’aide d’un sous-vêtement adapté,.
+Depuis 2007, il a été défini le seuil contraceptif masculin. Que ce soit pour une méthode thermique ou hormonale, il est de 1 million de spermatozoïdes/millilitre par éjaculat. En effet, sur les 50 couples suivis durant 537 cycles de grossesse, une seule a été constatée à la suite d'une mauvaise utilisation de la technique. L'indice de Pearl serait donc inférieur à 0,5 et cette contraception peut être considérée comme efficace selon les normes de l'OMS.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Contraception_masculine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Contraception_masculine</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Méthodes dites « naturelles »</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Le retrait</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Indice de Pearl en utilisation optimale : 1 à 9
+Indice de Pearl en pratique courante : 20</t>
         </is>
       </c>
     </row>
